--- a/Support Vector Machine/plot_infos_SVM_sg.xlsx
+++ b/Support Vector Machine/plot_infos_SVM_sg.xlsx
@@ -497,28 +497,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9668251886056352</v>
+        <v>0.9668371191043447</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9837625285083491</v>
+        <v>0.9837685289672864</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4839761896600233</v>
+        <v>0.4838891568136745</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2148468114595289</v>
+        <v>0.2147858542782506</v>
       </c>
       <c r="G2" t="n">
-        <v>9.715237711328504</v>
+        <v>9.712481265923016</v>
       </c>
       <c r="H2" t="n">
-        <v>18.21395382512124</v>
+        <v>18.21067843207808</v>
       </c>
       <c r="I2" t="n">
-        <v>1.031690356345667</v>
+        <v>1.031688863338307</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4631967087486899</v>
+        <v>-0.4631657018823567</v>
       </c>
     </row>
     <row r="3">
@@ -533,28 +533,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7300086034707813</v>
+        <v>0.729995635389626</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85462373939804</v>
+        <v>0.8546163145052088</v>
       </c>
       <c r="E3" t="n">
-        <v>1.38068538404917</v>
+        <v>1.380718541818912</v>
       </c>
       <c r="F3" t="n">
-        <v>1.063149817386759</v>
+        <v>1.06316865939333</v>
       </c>
       <c r="G3" t="n">
-        <v>48.07496619801358</v>
+        <v>48.07581822170226</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96069635110933</v>
+        <v>51.9619442101981</v>
       </c>
       <c r="I3" t="n">
-        <v>1.021073095356274</v>
+        <v>1.021084093618813</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3164414745774948</v>
+        <v>-0.3165895842406616</v>
       </c>
     </row>
     <row r="4">
@@ -569,28 +569,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6975851330647315</v>
+        <v>0.6975743901747746</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8428985725357291</v>
+        <v>0.8428913512719718</v>
       </c>
       <c r="E4" t="n">
-        <v>1.155832131485036</v>
+        <v>1.155852661010008</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9032125620077324</v>
+        <v>0.9032250202491747</v>
       </c>
       <c r="G4" t="n">
-        <v>52.61023776839075</v>
+        <v>52.61096343483078</v>
       </c>
       <c r="H4" t="n">
-        <v>54.9922600858765</v>
+        <v>54.99323684101759</v>
       </c>
       <c r="I4" t="n">
-        <v>0.881766949213972</v>
+        <v>0.8817721611952848</v>
       </c>
       <c r="J4" t="n">
-        <v>1.670754846653164</v>
+        <v>1.670687758040486</v>
       </c>
     </row>
     <row r="5">
@@ -605,28 +605,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8640756453748655</v>
+        <v>0.8640955775124071</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9304577364138553</v>
+        <v>0.9304685044350246</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2162740941933165</v>
+        <v>0.2162582362440504</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01979244429422271</v>
+        <v>0.01978462785931484</v>
       </c>
       <c r="G5" t="n">
-        <v>4.37354191371856</v>
+        <v>4.371814713925685</v>
       </c>
       <c r="H5" t="n">
-        <v>36.86792028649495</v>
+        <v>36.86521700568071</v>
       </c>
       <c r="I5" t="n">
-        <v>1.03608119123329</v>
+        <v>1.036083042583906</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.02526717913884813</v>
+        <v>-0.02526949527042643</v>
       </c>
     </row>
     <row r="6">
@@ -641,28 +641,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4691503373977685</v>
+        <v>0.4691420534716806</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6876090501945927</v>
+        <v>0.6876019327991751</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4274070040302275</v>
+        <v>0.4274103388672515</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2517259275213753</v>
+        <v>0.2517300785272529</v>
       </c>
       <c r="G6" t="n">
-        <v>55.62394812983108</v>
+        <v>55.62486537875293</v>
       </c>
       <c r="H6" t="n">
-        <v>72.85943059084607</v>
+        <v>72.85999907550915</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9250923069730794</v>
+        <v>0.9251070200291711</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09682186177763175</v>
+        <v>0.09680413821106781</v>
       </c>
     </row>
     <row r="7">
@@ -677,28 +677,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6924854981383832</v>
+        <v>0.6924979152275967</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8342516352064698</v>
+        <v>0.83425667698703</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2422738409279003</v>
+        <v>0.2422689495061176</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1786946527649493</v>
+        <v>0.1786910929010296</v>
       </c>
       <c r="G7" t="n">
-        <v>50.51671875705313</v>
+        <v>50.51571238869423</v>
       </c>
       <c r="H7" t="n">
-        <v>55.45399010545739</v>
+        <v>55.45287050932559</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9338701090551015</v>
+        <v>0.9339060197052601</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07252471393669224</v>
+        <v>0.07248169257056181</v>
       </c>
     </row>
     <row r="8">
@@ -713,28 +713,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9944097895646733</v>
+        <v>0.9944182798220433</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9972845051280981</v>
+        <v>0.9972885540004741</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02310039235906249</v>
+        <v>0.02308284357410146</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00308384328514964</v>
+        <v>0.003082209729107735</v>
       </c>
       <c r="G8" t="n">
-        <v>1.283570799024543</v>
+        <v>1.282890873152805</v>
       </c>
       <c r="H8" t="n">
-        <v>7.476770984406741</v>
+        <v>7.471091070223087</v>
       </c>
       <c r="I8" t="n">
-        <v>1.011206694270126</v>
+        <v>1.01119134512855</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.03469215975376061</v>
+        <v>-0.03464381070903011</v>
       </c>
     </row>
     <row r="9">
@@ -749,28 +749,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4599310327788536</v>
+        <v>0.459896433987896</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6781960510835073</v>
+        <v>0.6781705771256321</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2270543829271315</v>
+        <v>0.2270616557772615</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1331826476512273</v>
+        <v>0.1331900484210723</v>
       </c>
       <c r="G9" t="n">
-        <v>55.43386665759014</v>
+        <v>55.43694703852557</v>
       </c>
       <c r="H9" t="n">
-        <v>73.48938475869467</v>
+        <v>73.4917387202197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.006062195135451</v>
+        <v>1.006071643761663</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01943729047470555</v>
+        <v>-0.01946869070319712</v>
       </c>
     </row>
     <row r="10">
@@ -785,28 +785,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7044005351285507</v>
+        <v>0.7043874049974126</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8404240328393441</v>
+        <v>0.8404146108051278</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1423007981166454</v>
+        <v>0.1423039584866977</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1039104936181167</v>
+        <v>0.1039128710724974</v>
       </c>
       <c r="G10" t="n">
-        <v>44.33041536609071</v>
+        <v>44.33142963843744</v>
       </c>
       <c r="H10" t="n">
-        <v>54.36905966369562</v>
+        <v>54.37026715058402</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9636159476232469</v>
+        <v>0.963637386661083</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1275966593625335</v>
+        <v>0.1275200198976481</v>
       </c>
     </row>
     <row r="11">
@@ -821,28 +821,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2208262458219311</v>
+        <v>0.2208260315990973</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7126456849736207</v>
+        <v>0.7126494172498229</v>
       </c>
       <c r="E11" t="n">
-        <v>90.71737608970606</v>
+        <v>90.71738856043673</v>
       </c>
       <c r="F11" t="n">
-        <v>71.81296626619616</v>
+        <v>71.81290370180366</v>
       </c>
       <c r="G11" t="n">
-        <v>86.23912119568951</v>
+        <v>86.23904606304276</v>
       </c>
       <c r="H11" t="n">
-        <v>88.27081931069117</v>
+        <v>88.27083144509871</v>
       </c>
       <c r="I11" t="n">
-        <v>3.946340412712648</v>
+        <v>3.946403264013481</v>
       </c>
       <c r="J11" t="n">
-        <v>-1486.009960830538</v>
+        <v>-1486.043385673669</v>
       </c>
     </row>
     <row r="12">
@@ -857,28 +857,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1762495877242723</v>
+        <v>0.176246253369531</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6257405439812181</v>
+        <v>0.6257392525354241</v>
       </c>
       <c r="E12" t="n">
-        <v>93.2762644509711</v>
+        <v>93.27645323135607</v>
       </c>
       <c r="F12" t="n">
-        <v>74.93470303385477</v>
+        <v>74.93486195523286</v>
       </c>
       <c r="G12" t="n">
-        <v>89.98796836695414</v>
+        <v>89.9881592132692</v>
       </c>
       <c r="H12" t="n">
-        <v>90.76069701559854</v>
+        <v>90.76088070476558</v>
       </c>
       <c r="I12" t="n">
-        <v>3.767960683922944</v>
+        <v>3.768034773461992</v>
       </c>
       <c r="J12" t="n">
-        <v>-1395.48116222324</v>
+        <v>-1395.519948651262</v>
       </c>
     </row>
     <row r="13">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2539357723256523</v>
+        <v>0.2539318915221795</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6869383082834506</v>
+        <v>0.6869378455299529</v>
       </c>
       <c r="E13" t="n">
-        <v>66.72591189905633</v>
+        <v>66.72608544297137</v>
       </c>
       <c r="F13" t="n">
-        <v>54.29258409446457</v>
+        <v>54.29271384887015</v>
       </c>
       <c r="G13" t="n">
-        <v>85.54782725446934</v>
+        <v>85.54803170610228</v>
       </c>
       <c r="H13" t="n">
-        <v>86.37500956146677</v>
+        <v>86.37523420968654</v>
       </c>
       <c r="I13" t="n">
-        <v>3.061117690869179</v>
+        <v>3.061158717118162</v>
       </c>
       <c r="J13" t="n">
-        <v>-1050.080626201739</v>
+        <v>-1050.102832176017</v>
       </c>
     </row>
     <row r="14">
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8397534306824732</v>
+        <v>0.8397624241164194</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9201140453893711</v>
+        <v>0.9201185133622614</v>
       </c>
       <c r="E14" t="n">
-        <v>1.287559331650566</v>
+        <v>1.287523200635957</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2736720389680837</v>
+        <v>0.2736037563924894</v>
       </c>
       <c r="G14" t="n">
-        <v>11.08342901052413</v>
+        <v>11.08066363821167</v>
       </c>
       <c r="H14" t="n">
-        <v>40.03080929952914</v>
+        <v>40.02968596973759</v>
       </c>
       <c r="I14" t="n">
-        <v>1.097572439063067</v>
+        <v>1.09756569867533</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.452106692530132</v>
+        <v>-1.452002709852982</v>
       </c>
     </row>
     <row r="15">
@@ -965,28 +965,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6575419290604476</v>
+        <v>0.6575307647631854</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8149454723363188</v>
+        <v>0.8149389752724198</v>
       </c>
       <c r="E15" t="n">
-        <v>1.882246869350014</v>
+        <v>1.88227755017504</v>
       </c>
       <c r="F15" t="n">
-        <v>1.102257280224563</v>
+        <v>1.102285999917759</v>
       </c>
       <c r="G15" t="n">
-        <v>44.64025759725897</v>
+        <v>44.64142071455053</v>
       </c>
       <c r="H15" t="n">
-        <v>58.51991720256895</v>
+        <v>58.52087108347026</v>
       </c>
       <c r="I15" t="n">
-        <v>1.108607063840768</v>
+        <v>1.10861362194511</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.614013243865918</v>
+        <v>-1.614115737407085</v>
       </c>
     </row>
     <row r="16">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.787959095670807</v>
+        <v>0.7879435234592955</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8912894872986542</v>
+        <v>0.8912800469071079</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9978671784298456</v>
+        <v>0.9979038192693285</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7763067302705632</v>
+        <v>0.776333607171133</v>
       </c>
       <c r="G16" t="n">
-        <v>43.75159677135292</v>
+        <v>43.75311151709753</v>
       </c>
       <c r="H16" t="n">
-        <v>46.04789944494678</v>
+        <v>46.04959028489878</v>
       </c>
       <c r="I16" t="n">
-        <v>0.923701470561152</v>
+        <v>0.9237086232935777</v>
       </c>
       <c r="J16" t="n">
-        <v>1.094415175318012</v>
+        <v>1.094307384111133</v>
       </c>
     </row>
   </sheetData>
